--- a/Dragonfall/gameData/shared/MilitaryTechLevelUp.xlsx
+++ b/Dragonfall/gameData/shared/MilitaryTechLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="380" windowWidth="29040" windowHeight="20560" tabRatio="968" firstSheet="6" activeTab="19"/>
+    <workbookView xWindow="280" yWindow="0" windowWidth="34420" windowHeight="20560" tabRatio="968" firstSheet="3" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="infantry_infantry" sheetId="27" r:id="rId1"/>
@@ -315,7 +315,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="338">
+  <cellStyleXfs count="348">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -330,6 +330,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -674,7 +684,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="338">
+  <cellStyles count="348">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -846,6 +856,11 @@
     <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1010,6 +1025,11 @@
     <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3072,8 +3092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H64"/>
+    <sheetView showRuler="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3112,13 +3132,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>6600</v>
+        <v>3300</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -3130,7 +3150,7 @@
         <v>300</v>
       </c>
       <c r="H2" s="1">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -3138,13 +3158,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>12900</v>
+        <v>6500</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -3156,7 +3176,7 @@
         <v>900</v>
       </c>
       <c r="H3" s="1">
-        <v>260</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -3164,13 +3184,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>19200</v>
+        <v>9600</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -3182,7 +3202,7 @@
         <v>1200</v>
       </c>
       <c r="H4" s="1">
-        <v>390</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -3190,13 +3210,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>25500</v>
+        <v>12800</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -3208,7 +3228,7 @@
         <v>1800</v>
       </c>
       <c r="H5" s="1">
-        <v>510</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -3216,13 +3236,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -3234,7 +3254,7 @@
         <v>2400</v>
       </c>
       <c r="H6" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -3242,13 +3262,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>38300</v>
+        <v>19200</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -3260,7 +3280,7 @@
         <v>3000</v>
       </c>
       <c r="H7" s="1">
-        <v>770</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -3268,13 +3288,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44800</v>
+        <v>22400</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -3286,7 +3306,7 @@
         <v>3600</v>
       </c>
       <c r="H8" s="1">
-        <v>900</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -3294,13 +3314,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>51500</v>
+        <v>25800</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -3312,7 +3332,7 @@
         <v>6400</v>
       </c>
       <c r="H9" s="1">
-        <v>1030</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -3320,13 +3340,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>58400</v>
+        <v>29200</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="4">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -3338,7 +3358,7 @@
         <v>9200</v>
       </c>
       <c r="H10" s="1">
-        <v>1170</v>
+        <v>590</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -3346,13 +3366,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>65400</v>
+        <v>32700</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="4">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -3364,7 +3384,7 @@
         <v>12000</v>
       </c>
       <c r="H11" s="1">
-        <v>1310</v>
+        <v>660</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -3372,13 +3392,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>72500</v>
+        <v>36300</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -3390,7 +3410,7 @@
         <v>15096</v>
       </c>
       <c r="H12" s="1">
-        <v>1450</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -3398,13 +3418,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>79800</v>
+        <v>39900</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="4">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -3416,7 +3436,7 @@
         <v>18304</v>
       </c>
       <c r="H13" s="1">
-        <v>1600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -3424,13 +3444,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>87200</v>
+        <v>43600</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="4">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -3442,7 +3462,7 @@
         <v>21624</v>
       </c>
       <c r="H14" s="1">
-        <v>1750</v>
+        <v>880</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -3450,13 +3470,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>94800</v>
+        <v>47400</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="4">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -3468,7 +3488,7 @@
         <v>25056</v>
       </c>
       <c r="H15" s="1">
-        <v>1900</v>
+        <v>950</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -3476,13 +3496,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>102700</v>
+        <v>51400</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -3494,7 +3514,7 @@
         <v>28600</v>
       </c>
       <c r="H16" s="1">
-        <v>2060</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1">
@@ -3502,13 +3522,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>114100</v>
+        <v>57100</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -3520,7 +3540,7 @@
         <v>32256</v>
       </c>
       <c r="H17" s="1">
-        <v>2290</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1">
@@ -3528,13 +3548,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>123100</v>
+        <v>61600</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -3546,7 +3566,7 @@
         <v>36024</v>
       </c>
       <c r="H18" s="1">
-        <v>2470</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1">
@@ -3554,13 +3574,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>132600</v>
+        <v>66300</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -3572,7 +3592,7 @@
         <v>39904</v>
       </c>
       <c r="H19" s="1">
-        <v>2660</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20" customHeight="1">
@@ -3580,13 +3600,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>142600</v>
+        <v>71300</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -3598,7 +3618,7 @@
         <v>43896</v>
       </c>
       <c r="H20" s="1">
-        <v>2860</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
@@ -3606,13 +3626,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>153100</v>
+        <v>76600</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -3624,7 +3644,7 @@
         <v>48000</v>
       </c>
       <c r="H21" s="1">
-        <v>3070</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1">
@@ -3632,13 +3652,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>164300</v>
+        <v>82200</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -3650,7 +3670,7 @@
         <v>52216</v>
       </c>
       <c r="H22" s="1">
-        <v>3290</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
@@ -3658,13 +3678,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>176200</v>
+        <v>88100</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -3676,7 +3696,7 @@
         <v>56544</v>
       </c>
       <c r="H23" s="1">
-        <v>3530</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
@@ -3684,13 +3704,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>189000</v>
+        <v>94500</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -3702,7 +3722,7 @@
         <v>60984</v>
       </c>
       <c r="H24" s="1">
-        <v>3780</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
@@ -3710,13 +3730,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>215500</v>
+        <v>107800</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
@@ -3728,7 +3748,7 @@
         <v>65536</v>
       </c>
       <c r="H25" s="1">
-        <v>4310</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
@@ -3736,13 +3756,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>232100</v>
+        <v>116100</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -3754,7 +3774,7 @@
         <v>70200</v>
       </c>
       <c r="H26" s="1">
-        <v>4650</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
@@ -3762,13 +3782,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>250400</v>
+        <v>125200</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -3780,7 +3800,7 @@
         <v>74976</v>
       </c>
       <c r="H27" s="1">
-        <v>5010</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
@@ -3788,13 +3808,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>270300</v>
+        <v>135200</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -3806,7 +3826,7 @@
         <v>79864</v>
       </c>
       <c r="H28" s="1">
-        <v>5410</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
@@ -3814,13 +3834,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>292200</v>
+        <v>146100</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -3832,7 +3852,7 @@
         <v>84864</v>
       </c>
       <c r="H29" s="1">
-        <v>5850</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
@@ -3840,13 +3860,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>315900</v>
+        <v>158000</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -3858,7 +3878,7 @@
         <v>89976</v>
       </c>
       <c r="H30" s="1">
-        <v>6320</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
@@ -3866,13 +3886,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>342100</v>
+        <v>171100</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -3884,7 +3904,7 @@
         <v>95200</v>
       </c>
       <c r="H31" s="1">
-        <v>6850</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
@@ -3892,13 +3912,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>370900</v>
+        <v>185500</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -3910,7 +3930,7 @@
         <v>100536</v>
       </c>
       <c r="H32" s="1">
-        <v>7420</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
@@ -3918,13 +3938,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>442500</v>
+        <v>221300</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -3936,7 +3956,7 @@
         <v>105984</v>
       </c>
       <c r="H33" s="1">
-        <v>8850</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
@@ -3944,13 +3964,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>483500</v>
+        <v>241800</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -3962,7 +3982,7 @@
         <v>111544</v>
       </c>
       <c r="H34" s="1">
-        <v>9670</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
@@ -3970,13 +3990,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>528600</v>
+        <v>264300</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
       </c>
       <c r="D35" s="1">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="E35" s="1">
         <v>0</v>
@@ -3988,7 +4008,7 @@
         <v>117216</v>
       </c>
       <c r="H35" s="1">
-        <v>10580</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
@@ -3996,13 +4016,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>578800</v>
+        <v>289400</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
       </c>
       <c r="D36" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -4014,7 +4034,7 @@
         <v>123000</v>
       </c>
       <c r="H36" s="1">
-        <v>11580</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
@@ -4022,13 +4042,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>634900</v>
+        <v>317500</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
       </c>
       <c r="D37" s="1">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -4040,7 +4060,7 @@
         <v>128896</v>
       </c>
       <c r="H37" s="1">
-        <v>12700</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
@@ -4048,13 +4068,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>696800</v>
+        <v>348400</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
       </c>
       <c r="D38" s="1">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -4066,7 +4086,7 @@
         <v>134904</v>
       </c>
       <c r="H38" s="1">
-        <v>13940</v>
+        <v>6970</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
@@ -4074,13 +4094,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>766300</v>
+        <v>383200</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
       </c>
       <c r="D39" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -4092,7 +4112,7 @@
         <v>141024</v>
       </c>
       <c r="H39" s="1">
-        <v>15330</v>
+        <v>7670</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20" customHeight="1">
@@ -4100,13 +4120,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>843600</v>
+        <v>421800</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
       </c>
       <c r="D40" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -4118,7 +4138,7 @@
         <v>147256</v>
       </c>
       <c r="H40" s="1">
-        <v>16880</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1">
@@ -4126,13 +4146,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>1042900</v>
+        <v>521500</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="E41" s="1">
         <v>0</v>
@@ -4144,7 +4164,7 @@
         <v>153600</v>
       </c>
       <c r="H41" s="1">
-        <v>20860</v>
+        <v>10430</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1">
@@ -4152,13 +4172,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>1153800</v>
+        <v>576900</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
       </c>
       <c r="D42" s="1">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -4170,7 +4190,7 @@
         <v>160056</v>
       </c>
       <c r="H42" s="1">
-        <v>23080</v>
+        <v>11540</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1">
@@ -4178,13 +4198,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>1277700</v>
+        <v>638900</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
       </c>
       <c r="D43" s="1">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
@@ -4196,7 +4216,7 @@
         <v>166624</v>
       </c>
       <c r="H43" s="1">
-        <v>25560</v>
+        <v>12780</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1">
@@ -4204,13 +4224,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>1416100</v>
+        <v>708100</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
       </c>
       <c r="D44" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -4222,7 +4242,7 @@
         <v>173304</v>
       </c>
       <c r="H44" s="1">
-        <v>28330</v>
+        <v>14170</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="20" customHeight="1">
@@ -4230,13 +4250,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>1570600</v>
+        <v>785300</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
       </c>
       <c r="D45" s="1">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -4248,7 +4268,7 @@
         <v>180096</v>
       </c>
       <c r="H45" s="1">
-        <v>31420</v>
+        <v>15710</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="20" customHeight="1">
@@ -4256,13 +4276,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>1743000</v>
+        <v>871500</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
       </c>
       <c r="D46" s="1">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -4274,7 +4294,7 @@
         <v>187000</v>
       </c>
       <c r="H46" s="1">
-        <v>34860</v>
+        <v>17430</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20" customHeight="1">
@@ -4282,13 +4302,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>1935600</v>
+        <v>967800</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <v>460</v>
+        <v>230</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
@@ -4300,7 +4320,7 @@
         <v>194016</v>
       </c>
       <c r="H47" s="1">
-        <v>38720</v>
+        <v>19360</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20" customHeight="1">
@@ -4308,13 +4328,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>2150200</v>
+        <v>1075100</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
       </c>
       <c r="D48" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
@@ -4326,7 +4346,7 @@
         <v>201144</v>
       </c>
       <c r="H48" s="1">
-        <v>43010</v>
+        <v>21510</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="20" customHeight="1">
@@ -4334,13 +4354,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>2688300</v>
+        <v>1344200</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
       </c>
       <c r="D49" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E49" s="1">
         <v>0</v>
@@ -4352,7 +4372,7 @@
         <v>208384</v>
       </c>
       <c r="H49" s="1">
-        <v>53770</v>
+        <v>26890</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20" customHeight="1">
@@ -4360,13 +4380,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>2993600</v>
+        <v>1496800</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
       </c>
       <c r="D50" s="1">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -4378,7 +4398,7 @@
         <v>215736</v>
       </c>
       <c r="H50" s="1">
-        <v>59880</v>
+        <v>29940</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20" customHeight="1">
@@ -4386,13 +4406,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>3333800</v>
+        <v>1666900</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
       </c>
       <c r="D51" s="1">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
@@ -4404,7 +4424,7 @@
         <v>223200</v>
       </c>
       <c r="H51" s="1">
-        <v>66680</v>
+        <v>33340</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="20" customHeight="1">
@@ -4412,13 +4432,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>3713100</v>
+        <v>1856600</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
       </c>
       <c r="D52" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -4430,7 +4450,7 @@
         <v>230776</v>
       </c>
       <c r="H52" s="1">
-        <v>74270</v>
+        <v>37140</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="20" customHeight="1">
@@ -4438,13 +4458,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>4137000</v>
+        <v>2068500</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
       </c>
       <c r="D53" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -4456,7 +4476,7 @@
         <v>238464</v>
       </c>
       <c r="H53" s="1">
-        <v>82740</v>
+        <v>41370</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="20" customHeight="1">
@@ -4464,13 +4484,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>4609500</v>
+        <v>2304800</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <v>680</v>
+        <v>340</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -4482,7 +4502,7 @@
         <v>246264</v>
       </c>
       <c r="H54" s="1">
-        <v>92190</v>
+        <v>46100</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="20" customHeight="1">
@@ -4490,13 +4510,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>5136600</v>
+        <v>2568300</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
       </c>
       <c r="D55" s="1">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -4508,7 +4528,7 @@
         <v>254176</v>
       </c>
       <c r="H55" s="1">
-        <v>102740</v>
+        <v>51370</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="20" customHeight="1">
@@ -4516,13 +4536,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>5724600</v>
+        <v>2862300</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
       </c>
       <c r="D56" s="1">
-        <v>760</v>
+        <v>380</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -4534,7 +4554,7 @@
         <v>262200</v>
       </c>
       <c r="H56" s="1">
-        <v>114500</v>
+        <v>57250</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="20" customHeight="1">
@@ -4542,13 +4562,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>6379800</v>
+        <v>3189900</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
       </c>
       <c r="D57" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -4560,7 +4580,7 @@
         <v>270336</v>
       </c>
       <c r="H57" s="1">
-        <v>127600</v>
+        <v>63800</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="20" customHeight="1">
@@ -4568,13 +4588,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>7108500</v>
+        <v>3554300</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
       </c>
       <c r="D58" s="1">
-        <v>840</v>
+        <v>420</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -4586,7 +4606,7 @@
         <v>278584</v>
       </c>
       <c r="H58" s="1">
-        <v>142170</v>
+        <v>71090</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="20" customHeight="1">
@@ -4594,13 +4614,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>7923300</v>
+        <v>3961700</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>880</v>
+        <v>440</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -4612,7 +4632,7 @@
         <v>286944</v>
       </c>
       <c r="H59" s="1">
-        <v>158470</v>
+        <v>79240</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="20" customHeight="1">
@@ -4620,13 +4640,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>8828400</v>
+        <v>4414200</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
       </c>
       <c r="D60" s="1">
-        <v>920</v>
+        <v>460</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -4638,7 +4658,7 @@
         <v>295416</v>
       </c>
       <c r="H60" s="1">
-        <v>176570</v>
+        <v>88290</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="20" customHeight="1">
@@ -4646,13 +4666,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>9836400</v>
+        <v>4918200</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -4664,7 +4684,7 @@
         <v>304000</v>
       </c>
       <c r="H61" s="1">
-        <v>196730</v>
+        <v>98370</v>
       </c>
     </row>
   </sheetData>
@@ -4683,8 +4703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A26" workbookViewId="0">
-      <selection sqref="A1:H61"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11128,7 +11148,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H63"/>
+      <selection activeCell="A2" sqref="A2:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11167,7 +11187,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>6900</v>
+        <v>3500</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -11176,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -11185,7 +11205,7 @@
         <v>300</v>
       </c>
       <c r="H2" s="1">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -11193,7 +11213,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>13500</v>
+        <v>6800</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -11202,7 +11222,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -11211,7 +11231,7 @@
         <v>900</v>
       </c>
       <c r="H3" s="1">
-        <v>270</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -11219,7 +11239,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>20100</v>
+        <v>10100</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -11228,7 +11248,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -11237,7 +11257,7 @@
         <v>1200</v>
       </c>
       <c r="H4" s="1">
-        <v>410</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -11245,7 +11265,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>26700</v>
+        <v>13400</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -11254,7 +11274,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -11263,7 +11283,7 @@
         <v>1800</v>
       </c>
       <c r="H5" s="1">
-        <v>540</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -11271,7 +11291,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>33500</v>
+        <v>16800</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -11280,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -11289,7 +11309,7 @@
         <v>2400</v>
       </c>
       <c r="H6" s="1">
-        <v>670</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -11297,7 +11317,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>40100</v>
+        <v>20100</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -11306,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -11315,7 +11335,7 @@
         <v>3000</v>
       </c>
       <c r="H7" s="1">
-        <v>810</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -11323,7 +11343,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>46900</v>
+        <v>23500</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -11332,7 +11352,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -11341,7 +11361,7 @@
         <v>3600</v>
       </c>
       <c r="H8" s="1">
-        <v>940</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -11349,7 +11369,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>54000</v>
+        <v>27000</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -11358,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="4">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -11367,7 +11387,7 @@
         <v>6400</v>
       </c>
       <c r="H9" s="1">
-        <v>1080</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -11375,7 +11395,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>61200</v>
+        <v>30600</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -11384,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="4">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -11393,7 +11413,7 @@
         <v>9200</v>
       </c>
       <c r="H10" s="1">
-        <v>1230</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -11401,7 +11421,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>68500</v>
+        <v>34300</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -11410,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="4">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -11419,7 +11439,7 @@
         <v>12000</v>
       </c>
       <c r="H11" s="1">
-        <v>1370</v>
+        <v>690</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -11427,7 +11447,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>75900</v>
+        <v>38000</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -11436,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -11445,7 +11465,7 @@
         <v>15096</v>
       </c>
       <c r="H12" s="1">
-        <v>1520</v>
+        <v>760</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -11453,7 +11473,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>83600</v>
+        <v>41800</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -11462,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -11471,7 +11491,7 @@
         <v>18304</v>
       </c>
       <c r="H13" s="1">
-        <v>1680</v>
+        <v>840</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -11479,7 +11499,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>91400</v>
+        <v>45700</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -11488,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="4">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -11497,7 +11517,7 @@
         <v>21624</v>
       </c>
       <c r="H14" s="1">
-        <v>1830</v>
+        <v>920</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -11505,7 +11525,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>99300</v>
+        <v>49700</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -11514,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="4">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -11523,7 +11543,7 @@
         <v>25056</v>
       </c>
       <c r="H15" s="1">
-        <v>1990</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -11531,7 +11551,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>107600</v>
+        <v>53800</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -11540,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -11549,7 +11569,7 @@
         <v>28600</v>
       </c>
       <c r="H16" s="1">
-        <v>2160</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1">
@@ -11557,7 +11577,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>119500</v>
+        <v>59800</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -11566,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -11575,7 +11595,7 @@
         <v>32256</v>
       </c>
       <c r="H17" s="1">
-        <v>2390</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1">
@@ -11583,7 +11603,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>129000</v>
+        <v>64500</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -11592,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -11601,7 +11621,7 @@
         <v>36024</v>
       </c>
       <c r="H18" s="1">
-        <v>2580</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1">
@@ -11609,7 +11629,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>138900</v>
+        <v>69500</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -11618,7 +11638,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -11627,7 +11647,7 @@
         <v>39904</v>
       </c>
       <c r="H19" s="1">
-        <v>2780</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20" customHeight="1">
@@ -11635,7 +11655,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>149400</v>
+        <v>74700</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -11644,7 +11664,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -11653,7 +11673,7 @@
         <v>43896</v>
       </c>
       <c r="H20" s="1">
-        <v>2990</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
@@ -11661,7 +11681,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>160400</v>
+        <v>80200</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -11670,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -11679,7 +11699,7 @@
         <v>48000</v>
       </c>
       <c r="H21" s="1">
-        <v>3210</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1">
@@ -11687,7 +11707,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>172100</v>
+        <v>86100</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -11696,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -11705,7 +11725,7 @@
         <v>52216</v>
       </c>
       <c r="H22" s="1">
-        <v>3450</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
@@ -11713,7 +11733,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>184600</v>
+        <v>92300</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -11722,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -11731,7 +11751,7 @@
         <v>56544</v>
       </c>
       <c r="H23" s="1">
-        <v>3700</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
@@ -11739,7 +11759,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>198100</v>
+        <v>99100</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -11748,7 +11768,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -11757,7 +11777,7 @@
         <v>60984</v>
       </c>
       <c r="H24" s="1">
-        <v>3970</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
@@ -11765,7 +11785,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>225800</v>
+        <v>112900</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -11774,7 +11794,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -11783,7 +11803,7 @@
         <v>65536</v>
       </c>
       <c r="H25" s="1">
-        <v>4520</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
@@ -11791,7 +11811,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>243200</v>
+        <v>121600</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -11800,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -11809,7 +11829,7 @@
         <v>70200</v>
       </c>
       <c r="H26" s="1">
-        <v>4870</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
@@ -11817,7 +11837,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>262300</v>
+        <v>131200</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -11826,7 +11846,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -11835,7 +11855,7 @@
         <v>74976</v>
       </c>
       <c r="H27" s="1">
-        <v>5250</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
@@ -11843,7 +11863,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>283200</v>
+        <v>141600</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -11852,7 +11872,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -11861,7 +11881,7 @@
         <v>79864</v>
       </c>
       <c r="H28" s="1">
-        <v>5670</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
@@ -11869,7 +11889,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>306100</v>
+        <v>153100</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -11878,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -11887,7 +11907,7 @@
         <v>84864</v>
       </c>
       <c r="H29" s="1">
-        <v>6130</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
@@ -11895,7 +11915,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>330900</v>
+        <v>165500</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -11904,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -11913,7 +11933,7 @@
         <v>89976</v>
       </c>
       <c r="H30" s="1">
-        <v>6620</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
@@ -11921,7 +11941,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>358400</v>
+        <v>179200</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -11930,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -11939,7 +11959,7 @@
         <v>95200</v>
       </c>
       <c r="H31" s="1">
-        <v>7170</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
@@ -11947,7 +11967,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>388600</v>
+        <v>194300</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -11956,7 +11976,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -11965,7 +11985,7 @@
         <v>100536</v>
       </c>
       <c r="H32" s="1">
-        <v>7780</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
@@ -11973,7 +11993,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>463600</v>
+        <v>231800</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -11982,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -11991,7 +12011,7 @@
         <v>105984</v>
       </c>
       <c r="H33" s="1">
-        <v>9280</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
@@ -11999,7 +12019,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>506500</v>
+        <v>253300</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -12008,7 +12028,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -12017,7 +12037,7 @@
         <v>111544</v>
       </c>
       <c r="H34" s="1">
-        <v>10130</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
@@ -12025,7 +12045,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>553800</v>
+        <v>276900</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -12034,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -12043,7 +12063,7 @@
         <v>117216</v>
       </c>
       <c r="H35" s="1">
-        <v>11080</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
@@ -12051,7 +12071,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>606400</v>
+        <v>303200</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -12060,7 +12080,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -12069,7 +12089,7 @@
         <v>123000</v>
       </c>
       <c r="H36" s="1">
-        <v>12130</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
@@ -12077,7 +12097,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>665100</v>
+        <v>332600</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -12086,7 +12106,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -12095,7 +12115,7 @@
         <v>128896</v>
       </c>
       <c r="H37" s="1">
-        <v>13310</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
@@ -12103,7 +12123,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>730000</v>
+        <v>365000</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -12112,7 +12132,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -12121,7 +12141,7 @@
         <v>134904</v>
       </c>
       <c r="H38" s="1">
-        <v>14600</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
@@ -12129,7 +12149,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>802800</v>
+        <v>401400</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -12138,7 +12158,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -12147,7 +12167,7 @@
         <v>141024</v>
       </c>
       <c r="H39" s="1">
-        <v>16060</v>
+        <v>8030</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20" customHeight="1">
@@ -12155,7 +12175,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>883800</v>
+        <v>441900</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -12164,7 +12184,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -12173,7 +12193,7 @@
         <v>147256</v>
       </c>
       <c r="H40" s="1">
-        <v>17680</v>
+        <v>8840</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1">
@@ -12181,7 +12201,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>1092600</v>
+        <v>546300</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -12190,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -12199,7 +12219,7 @@
         <v>153600</v>
       </c>
       <c r="H41" s="1">
-        <v>21860</v>
+        <v>10930</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1">
@@ -12207,7 +12227,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>1208700</v>
+        <v>604400</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -12216,7 +12236,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -12225,7 +12245,7 @@
         <v>160056</v>
       </c>
       <c r="H42" s="1">
-        <v>24180</v>
+        <v>12090</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1">
@@ -12233,7 +12253,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>1338500</v>
+        <v>669300</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -12242,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -12251,7 +12271,7 @@
         <v>166624</v>
       </c>
       <c r="H43" s="1">
-        <v>26770</v>
+        <v>13390</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1">
@@ -12259,7 +12279,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>1483500</v>
+        <v>741800</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -12268,7 +12288,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -12277,7 +12297,7 @@
         <v>173304</v>
       </c>
       <c r="H44" s="1">
-        <v>29670</v>
+        <v>14840</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="20" customHeight="1">
@@ -12285,7 +12305,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>1645400</v>
+        <v>822700</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -12294,7 +12314,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -12303,7 +12323,7 @@
         <v>180096</v>
       </c>
       <c r="H45" s="1">
-        <v>32910</v>
+        <v>16460</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="20" customHeight="1">
@@ -12311,7 +12331,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>1826100</v>
+        <v>913100</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -12320,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -12329,7 +12349,7 @@
         <v>187000</v>
       </c>
       <c r="H46" s="1">
-        <v>36530</v>
+        <v>18270</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20" customHeight="1">
@@ -12337,7 +12357,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>2027800</v>
+        <v>1013900</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -12346,7 +12366,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>460</v>
+        <v>230</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -12355,7 +12375,7 @@
         <v>194016</v>
       </c>
       <c r="H47" s="1">
-        <v>40560</v>
+        <v>20280</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20" customHeight="1">
@@ -12363,7 +12383,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>2252600</v>
+        <v>1126300</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -12372,7 +12392,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -12381,7 +12401,7 @@
         <v>201144</v>
       </c>
       <c r="H48" s="1">
-        <v>45060</v>
+        <v>22530</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="20" customHeight="1">
@@ -12389,7 +12409,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>2816300</v>
+        <v>1408200</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -12398,7 +12418,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -12407,7 +12427,7 @@
         <v>208384</v>
       </c>
       <c r="H49" s="1">
-        <v>56330</v>
+        <v>28170</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20" customHeight="1">
@@ -12415,7 +12435,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>3136200</v>
+        <v>1568100</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
@@ -12424,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -12433,7 +12453,7 @@
         <v>215736</v>
       </c>
       <c r="H50" s="1">
-        <v>62730</v>
+        <v>31370</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20" customHeight="1">
@@ -12441,7 +12461,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>3492600</v>
+        <v>1746300</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
@@ -12450,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -12459,7 +12479,7 @@
         <v>223200</v>
       </c>
       <c r="H51" s="1">
-        <v>69860</v>
+        <v>34930</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="20" customHeight="1">
@@ -12467,7 +12487,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>3889900</v>
+        <v>1945000</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -12476,7 +12496,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -12485,7 +12505,7 @@
         <v>230776</v>
       </c>
       <c r="H52" s="1">
-        <v>77800</v>
+        <v>38900</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="20" customHeight="1">
@@ -12493,7 +12513,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>4334000</v>
+        <v>2167000</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -12502,7 +12522,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -12511,7 +12531,7 @@
         <v>238464</v>
       </c>
       <c r="H53" s="1">
-        <v>86680</v>
+        <v>43340</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="20" customHeight="1">
@@ -12519,7 +12539,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>4829000</v>
+        <v>2414500</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -12528,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>680</v>
+        <v>340</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -12537,7 +12557,7 @@
         <v>246264</v>
       </c>
       <c r="H54" s="1">
-        <v>96580</v>
+        <v>48290</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="20" customHeight="1">
@@ -12545,7 +12565,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>5381200</v>
+        <v>2690600</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -12554,7 +12574,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -12563,7 +12583,7 @@
         <v>254176</v>
       </c>
       <c r="H55" s="1">
-        <v>107630</v>
+        <v>53820</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="20" customHeight="1">
@@ -12571,7 +12591,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>5997300</v>
+        <v>2998700</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -12580,7 +12600,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>760</v>
+        <v>380</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -12589,7 +12609,7 @@
         <v>262200</v>
       </c>
       <c r="H56" s="1">
-        <v>119950</v>
+        <v>59980</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="20" customHeight="1">
@@ -12597,7 +12617,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>6683700</v>
+        <v>3341900</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -12606,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -12615,7 +12635,7 @@
         <v>270336</v>
       </c>
       <c r="H57" s="1">
-        <v>133680</v>
+        <v>66840</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="20" customHeight="1">
@@ -12623,7 +12643,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>7447100</v>
+        <v>3723600</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
@@ -12632,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>840</v>
+        <v>420</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -12641,7 +12661,7 @@
         <v>278584</v>
       </c>
       <c r="H58" s="1">
-        <v>148950</v>
+        <v>74480</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="20" customHeight="1">
@@ -12649,7 +12669,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>8300700</v>
+        <v>4150400</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -12658,7 +12678,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>880</v>
+        <v>440</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -12667,7 +12687,7 @@
         <v>286944</v>
       </c>
       <c r="H59" s="1">
-        <v>166020</v>
+        <v>83010</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="20" customHeight="1">
@@ -12675,7 +12695,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>9248800</v>
+        <v>4624400</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
@@ -12684,7 +12704,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>920</v>
+        <v>460</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -12693,7 +12713,7 @@
         <v>295416</v>
       </c>
       <c r="H60" s="1">
-        <v>184980</v>
+        <v>92490</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="20" customHeight="1">
@@ -12701,7 +12721,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>10304800</v>
+        <v>5152400</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -12710,7 +12730,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -12719,7 +12739,7 @@
         <v>304000</v>
       </c>
       <c r="H61" s="1">
-        <v>206100</v>
+        <v>103050</v>
       </c>
     </row>
   </sheetData>
@@ -17571,8 +17591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:H61"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -20794,7 +20814,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J13" sqref="I13:J13"/>
+      <selection activeCell="A2" sqref="A2:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -20833,7 +20853,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -20845,13 +20865,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="4">
         <v>300</v>
       </c>
       <c r="H2" s="1">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -20859,7 +20879,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>14100</v>
+        <v>7100</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -20871,13 +20891,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4">
         <v>900</v>
       </c>
       <c r="H3" s="1">
-        <v>290</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -20885,7 +20905,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -20897,13 +20917,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G4" s="4">
         <v>1200</v>
       </c>
       <c r="H4" s="1">
-        <v>420</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -20911,7 +20931,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>27900</v>
+        <v>14000</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -20923,13 +20943,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G5" s="4">
         <v>1800</v>
       </c>
       <c r="H5" s="1">
-        <v>560</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -20937,7 +20957,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>35000</v>
+        <v>17500</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -20949,13 +20969,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4">
         <v>2400</v>
       </c>
       <c r="H6" s="1">
-        <v>700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -20963,7 +20983,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>41900</v>
+        <v>21000</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -20975,13 +20995,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4">
         <v>3000</v>
       </c>
       <c r="H7" s="1">
-        <v>840</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -20989,7 +21009,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>49000</v>
+        <v>24500</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -21001,13 +21021,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G8" s="4">
         <v>3600</v>
       </c>
       <c r="H8" s="1">
-        <v>980</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -21015,7 +21035,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>56400</v>
+        <v>28200</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -21027,13 +21047,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="4">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G9" s="4">
         <v>6400</v>
       </c>
       <c r="H9" s="1">
-        <v>1130</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -21041,7 +21061,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>64000</v>
+        <v>32000</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -21053,13 +21073,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="4">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G10" s="4">
         <v>9200</v>
       </c>
       <c r="H10" s="1">
-        <v>1280</v>
+        <v>640</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -21067,7 +21087,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>71600</v>
+        <v>35800</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -21079,13 +21099,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="4">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G11" s="4">
         <v>12000</v>
       </c>
       <c r="H11" s="1">
-        <v>1440</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -21093,7 +21113,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>79400</v>
+        <v>39700</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -21105,13 +21125,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G12" s="4">
         <v>15096</v>
       </c>
       <c r="H12" s="1">
-        <v>1590</v>
+        <v>800</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -21119,7 +21139,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>87400</v>
+        <v>43700</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -21131,13 +21151,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="4">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G13" s="1">
         <v>18304</v>
       </c>
       <c r="H13" s="1">
-        <v>1750</v>
+        <v>880</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -21145,7 +21165,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>95500</v>
+        <v>47800</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -21157,13 +21177,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="4">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G14" s="1">
         <v>21624</v>
       </c>
       <c r="H14" s="1">
-        <v>1910</v>
+        <v>960</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -21171,7 +21191,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>103800</v>
+        <v>51900</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -21183,13 +21203,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="4">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G15" s="1">
         <v>25056</v>
       </c>
       <c r="H15" s="1">
-        <v>2080</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -21197,7 +21217,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>112500</v>
+        <v>56300</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -21209,13 +21229,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="G16" s="1">
         <v>28600</v>
       </c>
       <c r="H16" s="1">
-        <v>2250</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1">
@@ -21223,7 +21243,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>124900</v>
+        <v>62500</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -21235,13 +21255,13 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1">
         <v>32256</v>
       </c>
       <c r="H17" s="1">
-        <v>2500</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1">
@@ -21249,7 +21269,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>134800</v>
+        <v>67400</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -21261,13 +21281,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1">
         <v>36024</v>
       </c>
       <c r="H18" s="1">
-        <v>2700</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1">
@@ -21275,7 +21295,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>145200</v>
+        <v>72600</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -21287,13 +21307,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G19" s="1">
         <v>39904</v>
       </c>
       <c r="H19" s="1">
-        <v>2910</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20" customHeight="1">
@@ -21301,7 +21321,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>156200</v>
+        <v>78100</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -21313,13 +21333,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="G20" s="1">
         <v>43896</v>
       </c>
       <c r="H20" s="1">
-        <v>3130</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
@@ -21327,7 +21347,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>167700</v>
+        <v>83900</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -21339,13 +21359,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="G21" s="1">
         <v>48000</v>
       </c>
       <c r="H21" s="1">
-        <v>3360</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1">
@@ -21353,7 +21373,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>179900</v>
+        <v>90000</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -21365,13 +21385,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G22" s="1">
         <v>52216</v>
       </c>
       <c r="H22" s="1">
-        <v>3600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
@@ -21379,7 +21399,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>193000</v>
+        <v>96500</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -21391,13 +21411,13 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="G23" s="1">
         <v>56544</v>
       </c>
       <c r="H23" s="1">
-        <v>3860</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
@@ -21405,7 +21425,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>207000</v>
+        <v>103500</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -21417,13 +21437,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G24" s="1">
         <v>60984</v>
       </c>
       <c r="H24" s="1">
-        <v>4140</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
@@ -21431,7 +21451,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>236000</v>
+        <v>118000</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -21443,13 +21463,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="G25" s="1">
         <v>65536</v>
       </c>
       <c r="H25" s="1">
-        <v>4720</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
@@ -21457,7 +21477,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>254200</v>
+        <v>127100</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -21469,13 +21489,13 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G26" s="1">
         <v>70200</v>
       </c>
       <c r="H26" s="1">
-        <v>5090</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
@@ -21483,7 +21503,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>274200</v>
+        <v>137100</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -21495,13 +21515,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="G27" s="1">
         <v>74976</v>
       </c>
       <c r="H27" s="1">
-        <v>5490</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
@@ -21509,7 +21529,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>296100</v>
+        <v>148100</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -21521,13 +21541,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="G28" s="1">
         <v>79864</v>
       </c>
       <c r="H28" s="1">
-        <v>5930</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
@@ -21535,7 +21555,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>320000</v>
+        <v>160000</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -21547,13 +21567,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="G29" s="1">
         <v>84864</v>
       </c>
       <c r="H29" s="1">
-        <v>6400</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
@@ -21561,7 +21581,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>346000</v>
+        <v>173000</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -21573,13 +21593,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="G30" s="1">
         <v>89976</v>
       </c>
       <c r="H30" s="1">
-        <v>6920</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
@@ -21587,7 +21607,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>374700</v>
+        <v>187400</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -21599,13 +21619,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="G31" s="1">
         <v>95200</v>
       </c>
       <c r="H31" s="1">
-        <v>7500</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
@@ -21613,7 +21633,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>406200</v>
+        <v>203100</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -21625,13 +21645,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G32" s="1">
         <v>100536</v>
       </c>
       <c r="H32" s="1">
-        <v>8130</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
@@ -21639,7 +21659,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>484700</v>
+        <v>242400</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -21651,13 +21671,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="G33" s="1">
         <v>105984</v>
       </c>
       <c r="H33" s="1">
-        <v>9700</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
@@ -21665,7 +21685,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>529500</v>
+        <v>264800</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -21677,13 +21697,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G34" s="1">
         <v>111544</v>
       </c>
       <c r="H34" s="1">
-        <v>10590</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
@@ -21691,7 +21711,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>579000</v>
+        <v>289500</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -21703,13 +21723,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="G35" s="1">
         <v>117216</v>
       </c>
       <c r="H35" s="1">
-        <v>11580</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
@@ -21717,7 +21737,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>633900</v>
+        <v>317000</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -21729,13 +21749,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="G36" s="1">
         <v>123000</v>
       </c>
       <c r="H36" s="1">
-        <v>12680</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
@@ -21743,7 +21763,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>695300</v>
+        <v>347700</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -21755,13 +21775,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="G37" s="1">
         <v>128896</v>
       </c>
       <c r="H37" s="1">
-        <v>13910</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
@@ -21769,7 +21789,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>763200</v>
+        <v>381600</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -21781,13 +21801,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="G38" s="1">
         <v>134904</v>
       </c>
       <c r="H38" s="1">
-        <v>15270</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
@@ -21795,7 +21815,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>839300</v>
+        <v>419700</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -21807,13 +21827,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="G39" s="1">
         <v>141024</v>
       </c>
       <c r="H39" s="1">
-        <v>16790</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20" customHeight="1">
@@ -21821,7 +21841,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>924000</v>
+        <v>462000</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -21833,13 +21853,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="G40" s="1">
         <v>147256</v>
       </c>
       <c r="H40" s="1">
-        <v>18480</v>
+        <v>9240</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1">
@@ -21847,7 +21867,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>1142200</v>
+        <v>571100</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -21859,13 +21879,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="G41" s="1">
         <v>153600</v>
       </c>
       <c r="H41" s="1">
-        <v>22850</v>
+        <v>11430</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1">
@@ -21873,7 +21893,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>1263700</v>
+        <v>631900</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -21885,13 +21905,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="G42" s="1">
         <v>160056</v>
       </c>
       <c r="H42" s="1">
-        <v>25280</v>
+        <v>12640</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1">
@@ -21899,7 +21919,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>1399400</v>
+        <v>699700</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -21911,13 +21931,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="1">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="G43" s="1">
         <v>166624</v>
       </c>
       <c r="H43" s="1">
-        <v>27990</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1">
@@ -21925,7 +21945,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>1550900</v>
+        <v>775500</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -21937,13 +21957,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G44" s="1">
         <v>173304</v>
       </c>
       <c r="H44" s="1">
-        <v>31020</v>
+        <v>15510</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="20" customHeight="1">
@@ -21951,7 +21971,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>1720200</v>
+        <v>860100</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -21963,13 +21983,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="G45" s="1">
         <v>180096</v>
       </c>
       <c r="H45" s="1">
-        <v>34410</v>
+        <v>17210</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="20" customHeight="1">
@@ -21977,7 +21997,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>1909000</v>
+        <v>954500</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -21989,13 +22009,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="G46" s="1">
         <v>187000</v>
       </c>
       <c r="H46" s="1">
-        <v>38180</v>
+        <v>19090</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20" customHeight="1">
@@ -22003,7 +22023,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>2120000</v>
+        <v>1060000</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -22015,13 +22035,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>460</v>
+        <v>230</v>
       </c>
       <c r="G47" s="1">
         <v>194016</v>
       </c>
       <c r="H47" s="1">
-        <v>42400</v>
+        <v>21200</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20" customHeight="1">
@@ -22029,7 +22049,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>2355000</v>
+        <v>1177500</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -22041,13 +22061,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="G48" s="1">
         <v>201144</v>
       </c>
       <c r="H48" s="1">
-        <v>47100</v>
+        <v>23550</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="20" customHeight="1">
@@ -22055,7 +22075,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>2944300</v>
+        <v>1472200</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -22067,13 +22087,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G49" s="1">
         <v>208384</v>
       </c>
       <c r="H49" s="1">
-        <v>58890</v>
+        <v>29450</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20" customHeight="1">
@@ -22081,7 +22101,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>3278700</v>
+        <v>1639400</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
@@ -22093,13 +22113,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="G50" s="1">
         <v>215736</v>
       </c>
       <c r="H50" s="1">
-        <v>65580</v>
+        <v>32790</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20" customHeight="1">
@@ -22107,7 +22127,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>3651300</v>
+        <v>1825700</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
@@ -22119,13 +22139,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="G51" s="1">
         <v>223200</v>
       </c>
       <c r="H51" s="1">
-        <v>73030</v>
+        <v>36520</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="20" customHeight="1">
@@ -22133,7 +22153,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>4066700</v>
+        <v>2033400</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -22145,13 +22165,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G52" s="1">
         <v>230776</v>
       </c>
       <c r="H52" s="1">
-        <v>81340</v>
+        <v>40670</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="20" customHeight="1">
@@ -22159,7 +22179,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>4531000</v>
+        <v>2265500</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -22171,13 +22191,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="G53" s="1">
         <v>238464</v>
       </c>
       <c r="H53" s="1">
-        <v>90620</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="20" customHeight="1">
@@ -22185,7 +22205,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>5048500</v>
+        <v>2524300</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -22197,13 +22217,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="1">
-        <v>680</v>
+        <v>340</v>
       </c>
       <c r="G54" s="1">
         <v>246264</v>
       </c>
       <c r="H54" s="1">
-        <v>100970</v>
+        <v>50490</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="20" customHeight="1">
@@ -22211,7 +22231,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>5625800</v>
+        <v>2812900</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -22223,13 +22243,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="1">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="G55" s="1">
         <v>254176</v>
       </c>
       <c r="H55" s="1">
-        <v>112520</v>
+        <v>56260</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="20" customHeight="1">
@@ -22237,7 +22257,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>6269800</v>
+        <v>3134900</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -22249,13 +22269,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="1">
-        <v>760</v>
+        <v>380</v>
       </c>
       <c r="G56" s="1">
         <v>262200</v>
       </c>
       <c r="H56" s="1">
-        <v>125400</v>
+        <v>62700</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="20" customHeight="1">
@@ -22263,7 +22283,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>6987400</v>
+        <v>3493700</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -22275,13 +22295,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G57" s="1">
         <v>270336</v>
       </c>
       <c r="H57" s="1">
-        <v>139750</v>
+        <v>69880</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="20" customHeight="1">
@@ -22289,7 +22309,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>7785500</v>
+        <v>3892800</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
@@ -22301,13 +22321,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>840</v>
+        <v>420</v>
       </c>
       <c r="G58" s="1">
         <v>278584</v>
       </c>
       <c r="H58" s="1">
-        <v>155710</v>
+        <v>77860</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="20" customHeight="1">
@@ -22315,7 +22335,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>8677900</v>
+        <v>4339000</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -22327,13 +22347,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>880</v>
+        <v>440</v>
       </c>
       <c r="G59" s="1">
         <v>286944</v>
       </c>
       <c r="H59" s="1">
-        <v>173560</v>
+        <v>86780</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="20" customHeight="1">
@@ -22341,7 +22361,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>9669200</v>
+        <v>4834600</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
@@ -22353,13 +22373,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>920</v>
+        <v>460</v>
       </c>
       <c r="G60" s="1">
         <v>295416</v>
       </c>
       <c r="H60" s="1">
-        <v>193390</v>
+        <v>96700</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="20" customHeight="1">
@@ -22367,7 +22387,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>10773200</v>
+        <v>5386600</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -22379,13 +22399,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="G61" s="1">
         <v>304000</v>
       </c>
       <c r="H61" s="1">
-        <v>215470</v>
+        <v>107740</v>
       </c>
     </row>
   </sheetData>
@@ -24016,7 +24036,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H61"/>
+      <selection activeCell="G2" sqref="G2:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -25627,7 +25647,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H63"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -25666,10 +25686,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>6200</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2</v>
+        <v>3100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -25683,8 +25703,8 @@
       <c r="G2" s="4">
         <v>300</v>
       </c>
-      <c r="H2" s="1">
-        <v>130</v>
+      <c r="H2" s="4">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -25692,10 +25712,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>12200</v>
-      </c>
-      <c r="C3" s="4">
-        <v>4</v>
+        <v>6100</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -25709,8 +25729,8 @@
       <c r="G3" s="4">
         <v>900</v>
       </c>
-      <c r="H3" s="1">
-        <v>250</v>
+      <c r="H3" s="4">
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -25718,10 +25738,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>18200</v>
-      </c>
-      <c r="C4" s="4">
-        <v>8</v>
+        <v>9100</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -25735,8 +25755,8 @@
       <c r="G4" s="4">
         <v>1200</v>
       </c>
-      <c r="H4" s="1">
-        <v>370</v>
+      <c r="H4" s="4">
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -25744,10 +25764,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>24200</v>
-      </c>
-      <c r="C5" s="4">
-        <v>12</v>
+        <v>12100</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -25761,8 +25781,8 @@
       <c r="G5" s="4">
         <v>1800</v>
       </c>
-      <c r="H5" s="1">
-        <v>490</v>
+      <c r="H5" s="4">
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -25770,10 +25790,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>30400</v>
-      </c>
-      <c r="C6" s="4">
-        <v>16</v>
+        <v>15200</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -25787,8 +25807,8 @@
       <c r="G6" s="4">
         <v>2400</v>
       </c>
-      <c r="H6" s="1">
-        <v>610</v>
+      <c r="H6" s="4">
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -25796,10 +25816,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>36400</v>
-      </c>
-      <c r="C7" s="4">
-        <v>20</v>
+        <v>18200</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -25813,8 +25833,8 @@
       <c r="G7" s="4">
         <v>3000</v>
       </c>
-      <c r="H7" s="1">
-        <v>730</v>
+      <c r="H7" s="4">
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -25822,10 +25842,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>42600</v>
-      </c>
-      <c r="C8" s="4">
-        <v>24</v>
+        <v>21300</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -25839,8 +25859,8 @@
       <c r="G8" s="4">
         <v>3600</v>
       </c>
-      <c r="H8" s="1">
-        <v>860</v>
+      <c r="H8" s="4">
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -25848,10 +25868,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>49000</v>
-      </c>
-      <c r="C9" s="4">
-        <v>28</v>
+        <v>24500</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -25865,8 +25885,8 @@
       <c r="G9" s="4">
         <v>6400</v>
       </c>
-      <c r="H9" s="1">
-        <v>980</v>
+      <c r="H9" s="4">
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -25874,10 +25894,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>55600</v>
-      </c>
-      <c r="C10" s="4">
-        <v>32</v>
+        <v>27800</v>
+      </c>
+      <c r="C10" s="1">
+        <v>16</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -25891,8 +25911,8 @@
       <c r="G10" s="4">
         <v>9200</v>
       </c>
-      <c r="H10" s="1">
-        <v>1120</v>
+      <c r="H10" s="4">
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -25900,10 +25920,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>62200</v>
-      </c>
-      <c r="C11" s="4">
-        <v>36</v>
+        <v>31100</v>
+      </c>
+      <c r="C11" s="1">
+        <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -25917,8 +25937,8 @@
       <c r="G11" s="4">
         <v>12000</v>
       </c>
-      <c r="H11" s="1">
-        <v>1250</v>
+      <c r="H11" s="4">
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -25926,10 +25946,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>69000</v>
-      </c>
-      <c r="C12" s="4">
-        <v>40</v>
+        <v>34500</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -25943,8 +25963,8 @@
       <c r="G12" s="4">
         <v>15096</v>
       </c>
-      <c r="H12" s="1">
-        <v>1380</v>
+      <c r="H12" s="4">
+        <v>690</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -25952,10 +25972,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>76000</v>
-      </c>
-      <c r="C13" s="4">
-        <v>44</v>
+        <v>38000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>22</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -25969,8 +25989,8 @@
       <c r="G13" s="4">
         <v>18304</v>
       </c>
-      <c r="H13" s="1">
-        <v>1520</v>
+      <c r="H13" s="4">
+        <v>760</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -25978,10 +25998,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>83000</v>
-      </c>
-      <c r="C14" s="4">
-        <v>48</v>
+        <v>41500</v>
+      </c>
+      <c r="C14" s="1">
+        <v>24</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -25995,8 +26015,8 @@
       <c r="G14" s="1">
         <v>21624</v>
       </c>
-      <c r="H14" s="1">
-        <v>1660</v>
+      <c r="H14" s="4">
+        <v>830</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -26004,10 +26024,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>90200</v>
-      </c>
-      <c r="C15" s="4">
-        <v>52</v>
+        <v>45100</v>
+      </c>
+      <c r="C15" s="1">
+        <v>26</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -26021,8 +26041,8 @@
       <c r="G15" s="1">
         <v>25056</v>
       </c>
-      <c r="H15" s="1">
-        <v>1810</v>
+      <c r="H15" s="4">
+        <v>910</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -26030,10 +26050,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>97800</v>
+        <v>48900</v>
       </c>
       <c r="C16" s="1">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -26048,7 +26068,7 @@
         <v>28600</v>
       </c>
       <c r="H16" s="1">
-        <v>1960</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20" customHeight="1">
@@ -26056,10 +26076,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>108600</v>
+        <v>54300</v>
       </c>
       <c r="C17" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -26074,7 +26094,7 @@
         <v>32256</v>
       </c>
       <c r="H17" s="1">
-        <v>2180</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20" customHeight="1">
@@ -26082,10 +26102,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>117200</v>
+        <v>58600</v>
       </c>
       <c r="C18" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -26100,7 +26120,7 @@
         <v>36024</v>
       </c>
       <c r="H18" s="1">
-        <v>2350</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20" customHeight="1">
@@ -26108,10 +26128,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>126200</v>
+        <v>63100</v>
       </c>
       <c r="C19" s="1">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -26126,7 +26146,7 @@
         <v>39904</v>
       </c>
       <c r="H19" s="1">
-        <v>2530</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20" customHeight="1">
@@ -26134,10 +26154,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>135800</v>
+        <v>67900</v>
       </c>
       <c r="C20" s="1">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -26152,7 +26172,7 @@
         <v>43896</v>
       </c>
       <c r="H20" s="1">
-        <v>2720</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" customHeight="1">
@@ -26160,10 +26180,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>145800</v>
+        <v>72900</v>
       </c>
       <c r="C21" s="1">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -26178,7 +26198,7 @@
         <v>48000</v>
       </c>
       <c r="H21" s="1">
-        <v>2920</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" customHeight="1">
@@ -26186,10 +26206,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>156400</v>
+        <v>78200</v>
       </c>
       <c r="C22" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -26204,7 +26224,7 @@
         <v>52216</v>
       </c>
       <c r="H22" s="1">
-        <v>3130</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
@@ -26212,10 +26232,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>167800</v>
+        <v>83900</v>
       </c>
       <c r="C23" s="1">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -26230,7 +26250,7 @@
         <v>56544</v>
       </c>
       <c r="H23" s="1">
-        <v>3360</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" customHeight="1">
@@ -26238,10 +26258,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>180000</v>
+        <v>90000</v>
       </c>
       <c r="C24" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -26256,7 +26276,7 @@
         <v>60984</v>
       </c>
       <c r="H24" s="1">
-        <v>3600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" customHeight="1">
@@ -26264,10 +26284,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>205200</v>
+        <v>102600</v>
       </c>
       <c r="C25" s="1">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -26282,7 +26302,7 @@
         <v>65536</v>
       </c>
       <c r="H25" s="1">
-        <v>4110</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1">
@@ -26290,10 +26310,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>221000</v>
+        <v>110500</v>
       </c>
       <c r="C26" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -26308,7 +26328,7 @@
         <v>70200</v>
       </c>
       <c r="H26" s="1">
-        <v>4420</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
@@ -26316,10 +26336,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>238400</v>
+        <v>119200</v>
       </c>
       <c r="C27" s="1">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -26334,7 +26354,7 @@
         <v>74976</v>
       </c>
       <c r="H27" s="1">
-        <v>4770</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" customHeight="1">
@@ -26342,10 +26362,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>257400</v>
+        <v>128700</v>
       </c>
       <c r="C28" s="1">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -26360,7 +26380,7 @@
         <v>79864</v>
       </c>
       <c r="H28" s="1">
-        <v>5150</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" customHeight="1">
@@ -26368,10 +26388,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>278200</v>
+        <v>139100</v>
       </c>
       <c r="C29" s="1">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -26386,7 +26406,7 @@
         <v>84864</v>
       </c>
       <c r="H29" s="1">
-        <v>5570</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1">
@@ -26394,10 +26414,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>300800</v>
+        <v>150400</v>
       </c>
       <c r="C30" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -26412,7 +26432,7 @@
         <v>89976</v>
       </c>
       <c r="H30" s="1">
-        <v>6020</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" customHeight="1">
@@ -26420,10 +26440,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>325800</v>
+        <v>162900</v>
       </c>
       <c r="C31" s="1">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -26438,7 +26458,7 @@
         <v>95200</v>
       </c>
       <c r="H31" s="1">
-        <v>6520</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" customHeight="1">
@@ -26446,10 +26466,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>353200</v>
+        <v>176600</v>
       </c>
       <c r="C32" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -26464,7 +26484,7 @@
         <v>100536</v>
       </c>
       <c r="H32" s="1">
-        <v>7070</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" customHeight="1">
@@ -26472,10 +26492,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>421400</v>
+        <v>210700</v>
       </c>
       <c r="C33" s="1">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -26490,7 +26510,7 @@
         <v>105984</v>
       </c>
       <c r="H33" s="1">
-        <v>8430</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" customHeight="1">
@@ -26498,10 +26518,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>460400</v>
+        <v>230200</v>
       </c>
       <c r="C34" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -26516,7 +26536,7 @@
         <v>111544</v>
       </c>
       <c r="H34" s="1">
-        <v>9210</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" customHeight="1">
@@ -26524,10 +26544,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>503400</v>
+        <v>251700</v>
       </c>
       <c r="C35" s="1">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -26542,7 +26562,7 @@
         <v>117216</v>
       </c>
       <c r="H35" s="1">
-        <v>10070</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" customHeight="1">
@@ -26550,10 +26570,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>551200</v>
+        <v>275600</v>
       </c>
       <c r="C36" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -26568,7 +26588,7 @@
         <v>123000</v>
       </c>
       <c r="H36" s="1">
-        <v>11030</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" customHeight="1">
@@ -26576,10 +26596,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>604600</v>
+        <v>302300</v>
       </c>
       <c r="C37" s="1">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -26594,7 +26614,7 @@
         <v>128896</v>
       </c>
       <c r="H37" s="1">
-        <v>12100</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" customHeight="1">
@@ -26602,10 +26622,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>663600</v>
+        <v>331800</v>
       </c>
       <c r="C38" s="1">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -26620,7 +26640,7 @@
         <v>134904</v>
       </c>
       <c r="H38" s="1">
-        <v>13280</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" customHeight="1">
@@ -26628,10 +26648,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>729800</v>
+        <v>364900</v>
       </c>
       <c r="C39" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -26646,7 +26666,7 @@
         <v>141024</v>
       </c>
       <c r="H39" s="1">
-        <v>14600</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20" customHeight="1">
@@ -26654,10 +26674,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>803400</v>
+        <v>401700</v>
       </c>
       <c r="C40" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -26672,7 +26692,7 @@
         <v>147256</v>
       </c>
       <c r="H40" s="1">
-        <v>16070</v>
+        <v>8040</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" customHeight="1">
@@ -26680,10 +26700,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>993200</v>
+        <v>496600</v>
       </c>
       <c r="C41" s="1">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -26698,7 +26718,7 @@
         <v>153600</v>
       </c>
       <c r="H41" s="1">
-        <v>19870</v>
+        <v>9940</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20" customHeight="1">
@@ -26706,10 +26726,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>1098800</v>
+        <v>549400</v>
       </c>
       <c r="C42" s="1">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -26724,7 +26744,7 @@
         <v>160056</v>
       </c>
       <c r="H42" s="1">
-        <v>21980</v>
+        <v>10990</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" customHeight="1">
@@ -26732,10 +26752,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>1216800</v>
+        <v>608400</v>
       </c>
       <c r="C43" s="1">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -26750,7 +26770,7 @@
         <v>166624</v>
       </c>
       <c r="H43" s="1">
-        <v>24340</v>
+        <v>12170</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" customHeight="1">
@@ -26758,10 +26778,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>1348600</v>
+        <v>674300</v>
       </c>
       <c r="C44" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -26776,7 +26796,7 @@
         <v>173304</v>
       </c>
       <c r="H44" s="1">
-        <v>26980</v>
+        <v>13490</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="20" customHeight="1">
@@ -26784,10 +26804,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>1495800</v>
+        <v>747900</v>
       </c>
       <c r="C45" s="1">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -26802,7 +26822,7 @@
         <v>180096</v>
       </c>
       <c r="H45" s="1">
-        <v>29920</v>
+        <v>14960</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="20" customHeight="1">
@@ -26810,10 +26830,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>1660000</v>
+        <v>830000</v>
       </c>
       <c r="C46" s="1">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -26828,7 +26848,7 @@
         <v>187000</v>
       </c>
       <c r="H46" s="1">
-        <v>33200</v>
+        <v>16600</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="20" customHeight="1">
@@ -26836,10 +26856,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>1843400</v>
+        <v>921700</v>
       </c>
       <c r="C47" s="1">
-        <v>460</v>
+        <v>230</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -26854,7 +26874,7 @@
         <v>194016</v>
       </c>
       <c r="H47" s="1">
-        <v>36870</v>
+        <v>18440</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="20" customHeight="1">
@@ -26862,10 +26882,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>2047800</v>
+        <v>1023900</v>
       </c>
       <c r="C48" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -26880,7 +26900,7 @@
         <v>201144</v>
       </c>
       <c r="H48" s="1">
-        <v>40960</v>
+        <v>20480</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="20" customHeight="1">
@@ -26888,10 +26908,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>2560200</v>
+        <v>1280100</v>
       </c>
       <c r="C49" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -26906,7 +26926,7 @@
         <v>208384</v>
       </c>
       <c r="H49" s="1">
-        <v>51210</v>
+        <v>25610</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="20" customHeight="1">
@@ -26914,10 +26934,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>2851000</v>
+        <v>1425500</v>
       </c>
       <c r="C50" s="1">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -26932,7 +26952,7 @@
         <v>215736</v>
       </c>
       <c r="H50" s="1">
-        <v>57020</v>
+        <v>28510</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20" customHeight="1">
@@ -26940,10 +26960,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>3175000</v>
+        <v>1587500</v>
       </c>
       <c r="C51" s="1">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -26958,7 +26978,7 @@
         <v>223200</v>
       </c>
       <c r="H51" s="1">
-        <v>63500</v>
+        <v>31750</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="20" customHeight="1">
@@ -26966,10 +26986,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>3536200</v>
+        <v>1768100</v>
       </c>
       <c r="C52" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -26984,7 +27004,7 @@
         <v>230776</v>
       </c>
       <c r="H52" s="1">
-        <v>70730</v>
+        <v>35370</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="20" customHeight="1">
@@ -26992,10 +27012,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>3940000</v>
+        <v>1970000</v>
       </c>
       <c r="C53" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -27010,7 +27030,7 @@
         <v>238464</v>
       </c>
       <c r="H53" s="1">
-        <v>78800</v>
+        <v>39400</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="20" customHeight="1">
@@ -27018,10 +27038,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>4390000</v>
+        <v>2195000</v>
       </c>
       <c r="C54" s="1">
-        <v>680</v>
+        <v>340</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -27036,7 +27056,7 @@
         <v>246264</v>
       </c>
       <c r="H54" s="1">
-        <v>87800</v>
+        <v>43900</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="20" customHeight="1">
@@ -27044,10 +27064,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>4892000</v>
+        <v>2446000</v>
       </c>
       <c r="C55" s="1">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -27062,7 +27082,7 @@
         <v>254176</v>
       </c>
       <c r="H55" s="1">
-        <v>97840</v>
+        <v>48920</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="20" customHeight="1">
@@ -27070,10 +27090,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>5452000</v>
+        <v>2726000</v>
       </c>
       <c r="C56" s="1">
-        <v>760</v>
+        <v>380</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -27088,7 +27108,7 @@
         <v>262200</v>
       </c>
       <c r="H56" s="1">
-        <v>109040</v>
+        <v>54520</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="20" customHeight="1">
@@ -27096,10 +27116,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>6076000</v>
+        <v>3038000</v>
       </c>
       <c r="C57" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
@@ -27114,7 +27134,7 @@
         <v>270336</v>
       </c>
       <c r="H57" s="1">
-        <v>121520</v>
+        <v>60760</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="20" customHeight="1">
@@ -27122,10 +27142,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>6770000</v>
+        <v>3385000</v>
       </c>
       <c r="C58" s="1">
-        <v>840</v>
+        <v>420</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -27140,7 +27160,7 @@
         <v>278584</v>
       </c>
       <c r="H58" s="1">
-        <v>135400</v>
+        <v>67700</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="20" customHeight="1">
@@ -27148,10 +27168,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>7546000</v>
+        <v>3773000</v>
       </c>
       <c r="C59" s="1">
-        <v>880</v>
+        <v>440</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -27166,7 +27186,7 @@
         <v>286944</v>
       </c>
       <c r="H59" s="1">
-        <v>150920</v>
+        <v>75460</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="20" customHeight="1">
@@ -27174,10 +27194,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>8408000</v>
+        <v>4204000</v>
       </c>
       <c r="C60" s="1">
-        <v>920</v>
+        <v>460</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -27192,7 +27212,7 @@
         <v>295416</v>
       </c>
       <c r="H60" s="1">
-        <v>168160</v>
+        <v>84080</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="20" customHeight="1">
@@ -27200,10 +27220,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>9368000</v>
+        <v>4684000</v>
       </c>
       <c r="C61" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -27218,7 +27238,7 @@
         <v>304000</v>
       </c>
       <c r="H61" s="1">
-        <v>187360</v>
+        <v>93680</v>
       </c>
     </row>
   </sheetData>
@@ -27238,7 +27258,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H61"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -30460,7 +30480,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H61"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -32071,7 +32091,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H61"/>
+      <selection activeCell="A2" sqref="A2:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
